--- a/Filter.xlsx
+++ b/Filter.xlsx
@@ -5,28 +5,26 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\(SEP592) 소프트웨어 특강\Contest\Source - ing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\datacontest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6750" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6750" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Self Defined" sheetId="3" r:id="rId1"/>
     <sheet name="Stop Word List" sheetId="6" r:id="rId2"/>
-    <sheet name="Stress Soft" sheetId="2" r:id="rId3"/>
-    <sheet name="Stress None" sheetId="4" r:id="rId4"/>
-    <sheet name="Stress Rest" sheetId="1" r:id="rId5"/>
-    <sheet name="Check List" sheetId="7" r:id="rId6"/>
-    <sheet name="Check List(comp)" sheetId="5" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="Software Keywords" sheetId="2" r:id="rId3"/>
+    <sheet name="NonSoftware Keywords" sheetId="4" r:id="rId4"/>
+    <sheet name="Check List" sheetId="7" r:id="rId5"/>
+    <sheet name="backup" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>a</t>
   </si>
@@ -462,15 +460,9 @@
     <t>15V164000</t>
   </si>
   <si>
-    <t>15V148000</t>
-  </si>
-  <si>
     <t>15V248000</t>
   </si>
   <si>
-    <t>15E030000</t>
-  </si>
-  <si>
     <t>15V276000</t>
   </si>
   <si>
@@ -481,9 +473,6 @@
   </si>
   <si>
     <t>15V008000</t>
-  </si>
-  <si>
-    <t>15V006000</t>
   </si>
   <si>
     <t>15V075000</t>
@@ -519,30 +508,19 @@
     <t>15V013000</t>
   </si>
   <si>
+    <t>15V043000</t>
+  </si>
+  <si>
+    <t>15V045000</t>
+  </si>
+  <si>
+    <t>15V046000</t>
+  </si>
+  <si>
+    <t>15V064000</t>
+  </si>
+  <si>
     <t>15E011000</t>
-  </si>
-  <si>
-    <t>15V043000</t>
-  </si>
-  <si>
-    <t>15V045000</t>
-  </si>
-  <si>
-    <t>15V046000</t>
-  </si>
-  <si>
-    <t>15V064000</t>
-  </si>
-  <si>
-    <t>15E011000</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>POSITIVE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEGATIVE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -562,7 +540,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,36 +710,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1204,7 +1157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1216,16 +1169,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1557,7 +1500,7 @@
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A1" s="6"/>
+      <c r="A1" s="4"/>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.6">
@@ -2064,7 +2007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
@@ -2075,17 +2018,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.6">
@@ -2155,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -2167,101 +2110,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A26"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
-  <cols>
-    <col min="1" max="1" width="12.625" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A1"/>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A2"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A3"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A4"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A5"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A6"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A7"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A8"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A9"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A10"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A11"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A12"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A13"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A14"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A15"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A16"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A17"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A18"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A19"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A20"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A21"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A22"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A23"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A24"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A25"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2279,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.6">
@@ -2289,7 +2137,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.6">
@@ -2299,7 +2147,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.6">
@@ -2319,27 +2167,27 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A9" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A11" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A12" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A13" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.6">
@@ -2354,7 +2202,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A16" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.6">
@@ -2409,7 +2257,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A27" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.6">
@@ -2424,12 +2272,12 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A30" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A31" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.6">
@@ -2439,7 +2287,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A33" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.6">
@@ -2463,620 +2311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:H36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
-  <cols>
-    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A1" t="e">
-        <f t="shared" ref="A1:A34" si="0">VLOOKUP(B1,$C$1:$C$36, 1, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" t="e">
-        <f>VLOOKUP(C1,$B$1:$B$34,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A2" t="str">
-        <f t="shared" si="0"/>
-        <v>15E033000</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:D36" si="1">VLOOKUP(C2,$B$1:$B$34,1,FALSE)</f>
-        <v>15E033000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" si="1"/>
-        <v>15V008000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>15V008000</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="1"/>
-        <v>15V011000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>15V011000</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="1"/>
-        <v>15V013000</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>15V015000</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="1"/>
-        <v>15V015000</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>15V038000</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="1"/>
-        <v>15V038000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>15V041000</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="1"/>
-        <v>15V041000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>15V075000</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>15V085000</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>15V093000</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>15V100000</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>15V137000</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="1"/>
-        <v>15V075000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>15V145000</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="1"/>
-        <v>15V085000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A15" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="1"/>
-        <v>15V093000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>15V164000</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="1"/>
-        <v>15V100000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>15V175000</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="1"/>
-        <v>15V137000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>15V179000</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="1"/>
-        <v>15V145000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>15V200000</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="1"/>
-        <v>15V164000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>15V202000</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="1"/>
-        <v>15V175000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>15V206000</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="1"/>
-        <v>15V179000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v>15V214000</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="1"/>
-        <v>15V200000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>15V218000</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="1"/>
-        <v>15V202000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>15V248000</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="1"/>
-        <v>15V206000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>15V262000</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="1"/>
-        <v>15V214000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>15V274000</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="1"/>
-        <v>15V218000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>15V275000</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="1"/>
-        <v>15V248000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>15V276000</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="1"/>
-        <v>15V262000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>15V280000</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="1"/>
-        <v>15V274000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>15V281000</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="1"/>
-        <v>15V275000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>15V288000</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="1"/>
-        <v>15V276000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A32" t="str">
-        <f t="shared" si="0"/>
-        <v>15V296000</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="1"/>
-        <v>15V280000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A33" t="str">
-        <f t="shared" si="0"/>
-        <v>15V301000</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="1"/>
-        <v>15V281000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A34" t="str">
-        <f t="shared" si="0"/>
-        <v>15V013000</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="1"/>
-        <v>15V288000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="B35" s="8"/>
-      <c r="C35" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="1"/>
-        <v>15V296000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="B36" s="8"/>
-      <c r="C36" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="1"/>
-        <v>15V301000</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B1:B35">
-    <sortCondition ref="B1"/>
-  </sortState>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -3088,32 +2323,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
